--- a/groupby.xlsx
+++ b/groupby.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WolfCoder\Desktop\ds_prac\excel-for-datascience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D33567C-13A5-4C07-9C8E-C7A50B984394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3916B3-02A1-47F1-A7D7-21B5FD891EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{90E6185E-284C-4DDF-BCF4-3517C2625AF5}"/>
   </bookViews>
@@ -735,13 +735,15 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="2" width="9" customWidth="1"/>
-    <col min="3" max="6" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="6" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
